--- a/Tutoring2.xlsx
+++ b/Tutoring2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHAŁ\Desktop\projekt_korepetycje\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908044A0-97E1-4E0C-BC4D-51A94AED76E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Y_</t>
   </si>
@@ -75,12 +76,33 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,16 +216,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -493,11 +508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,11 +569,11 @@
       <c r="F2" s="2">
         <v>0.25</v>
       </c>
-      <c r="G2" s="2">
-        <v>64</v>
-      </c>
-      <c r="H2" s="2">
-        <v>23</v>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -580,11 +595,11 @@
       <c r="F3" s="3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="3">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3">
-        <v>23</v>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -606,11 +621,11 @@
       <c r="F4" s="9">
         <v>0.25</v>
       </c>
-      <c r="G4" s="9">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9">
-        <v>49</v>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -632,11 +647,11 @@
       <c r="F5" s="3">
         <v>0.25</v>
       </c>
-      <c r="G5" s="3">
-        <v>50</v>
-      </c>
-      <c r="H5" s="3">
-        <v>49</v>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -658,11 +673,11 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>70</v>
-      </c>
-      <c r="H6" s="3">
-        <v>60</v>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -684,11 +699,11 @@
       <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
-        <v>70</v>
-      </c>
-      <c r="H7" s="3">
-        <v>60</v>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,11 +725,11 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>80</v>
-      </c>
-      <c r="H8" s="3">
-        <v>64</v>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -736,11 +751,11 @@
       <c r="F9" s="3">
         <v>0.25</v>
       </c>
-      <c r="G9" s="3">
-        <v>80</v>
-      </c>
-      <c r="H9" s="3">
-        <v>64</v>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -864,16 +879,16 @@
       <c r="H21" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="E2:E6 D1:E1 E12:E1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"{0,5;1;2;3}"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E11">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"{0,5;1;2;3}"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tutoring2.xlsx
+++ b/Tutoring2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHAŁ\Desktop\projekt_korepetycje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python\projekt_korepetycje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908044A0-97E1-4E0C-BC4D-51A94AED76E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +215,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -508,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,28 +577,28 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>15</v>
       </c>
       <c r="F3" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -630,33 +629,33 @@
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>30</v>
@@ -668,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -685,16 +684,16 @@
         <v>14</v>
       </c>
       <c r="B7" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -711,19 +710,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>23</v>
@@ -737,19 +736,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>23</v>
@@ -879,8 +878,9 @@
       <c r="H21" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:H21">
+    <sortCondition ref="C2:C21" customList="monday,tuesday,wednesday,thursday,friday"/>
+    <sortCondition ref="E2:E21"/>
   </sortState>
   <conditionalFormatting sqref="E2:E6 D1:E1 E12:E1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/Tutoring2.xlsx
+++ b/Tutoring2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python\projekt_korepetycje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,16 +83,16 @@
     <t>2.3</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>7.0</t>
   </si>
   <si>
     <t>6.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
   </si>
   <si>
     <t>8.0</t>
@@ -511,7 +511,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:H1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +519,8 @@
     <col min="1" max="1" width="17.77734375" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" style="8" customWidth="1"/>
-    <col min="4" max="8" width="17.77734375" style="7" customWidth="1"/>
+    <col min="4" max="6" width="17.77734375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="17.77734375" style="8" customWidth="1"/>
     <col min="9" max="16" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,10 +543,10 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -577,28 +578,28 @@
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>15</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -621,41 +622,41 @@
         <v>0.25</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>30</v>
@@ -667,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -684,25 +685,25 @@
         <v>14</v>
       </c>
       <c r="B7" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,19 +711,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>23</v>
@@ -736,19 +737,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>23</v>
@@ -764,8 +765,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -774,8 +775,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -784,8 +785,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -794,8 +795,8 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -804,8 +805,8 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
@@ -814,8 +815,8 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
@@ -824,8 +825,8 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -834,8 +835,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
@@ -844,8 +845,8 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -854,8 +855,8 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -864,8 +865,8 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -874,13 +875,12 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:H21">
-    <sortCondition ref="C2:C21" customList="monday,tuesday,wednesday,thursday,friday"/>
-    <sortCondition ref="E2:E21"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="E2:E6 D1:E1 E12:E1048576">
     <cfRule type="expression" dxfId="1" priority="2">
